--- a/biology/Zoologie/Brassemer_des_Malouines/Brassemer_des_Malouines.xlsx
+++ b/biology/Zoologie/Brassemer_des_Malouines/Brassemer_des_Malouines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachyeres brachypterus
 Le Brassemer des Malouines (Tachyeres brachypterus) est une espèce d'oiseaux appartenant à la famille des Anatidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce brassemer mesure entre 61 et 74 cm. Il ressemble beaucoup au Brassemer de Patagonie : il s'en distingue par son aspect plus massif, son inaptitude à voler sur de longues distances et un petit collier jaunâtre sur le devant du cou.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les îles Malouines où il fréquente les côtes rocheuses et les baies abritées.
 </t>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Brassemer des Malouines vit en couple ou en familles et défend un territoire durant la période de nidification. Le nid est placé près du rivage, parfois dans un terrier de manchot.
 Cet oiseau se nourrit surtout en eaux peu profondes, en plongeant dans les champs d'algues.
@@ -606,7 +624,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ne semble pas menacée, la population est comprise entre 27 000 et 48 000 individus.
 </t>
